--- a/output.xlsx
+++ b/output.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="31">
   <si>
     <t>旅遊規劃行程表</t>
   </si>
@@ -20,37 +20,97 @@
     <t>位址：</t>
   </si>
   <si>
-    <t>象山</t>
+    <t>薰衣草森林-台中新社店</t>
   </si>
   <si>
     <t>地址：</t>
   </si>
   <si>
-    <t>110台北市信義區信義路五段150巷401弄31號</t>
+    <t>無</t>
   </si>
   <si>
     <t>電話：</t>
   </si>
   <si>
-    <t>022222222</t>
-  </si>
-  <si>
     <t>營業時間：</t>
   </si>
   <si>
-    <t>24小時營業</t>
+    <t>平日10:30~18:30；週六10:00~19:00；週日09:30~18:30</t>
   </si>
   <si>
     <t>價位：</t>
   </si>
   <si>
-    <t>0</t>
+    <t xml:space="preserve">入園券	100	一般民眾皆適用，園區內消費全額折抵100元	
+</t>
   </si>
   <si>
     <t>是否確認行程（含購票）：</t>
   </si>
   <si>
-    <t>是</t>
+    <t>尚未訂購</t>
+  </si>
+  <si>
+    <t>台中車站(舊站)</t>
+  </si>
+  <si>
+    <t>06:30~22:00</t>
+  </si>
+  <si>
+    <t>台中民俗公園</t>
+  </si>
+  <si>
+    <t>週二至週日08:30~22:00；週一公休。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">全票	50	適用一般民眾	
+半票	20	★軍、警、學生及外縣市65歲以上民眾、身高110公分以上未滿12歲之兒童 ★下午16時30分以後夜間入園暫時以半票優待	
+兒童教學參觀票	20	國小及幼稚園學童教學參觀30人以上團體75折優待	
+成人團體票	40	40人以上8折優待	
+免費票	0	持有殘障手冊及本市65歲以上市民憑證免費入園	
+</t>
+  </si>
+  <si>
+    <t>新光三越百貨台中館</t>
+  </si>
+  <si>
+    <t>平日11:00~22:00；例假日10:30~22:00。</t>
+  </si>
+  <si>
+    <t>大潤發量販店台中店</t>
+  </si>
+  <si>
+    <t>週日至週四07:00~22:30；週五、六07:00~23:00</t>
+  </si>
+  <si>
+    <t>台中都會公園</t>
+  </si>
+  <si>
+    <t>全天開放</t>
+  </si>
+  <si>
+    <t>台中公園</t>
+  </si>
+  <si>
+    <t>全年開放</t>
+  </si>
+  <si>
+    <t>台中港區藝術中心</t>
+  </si>
+  <si>
+    <t>展覽廳09:00~17:30， 週一休館；演藝廳依節目時程開放； 戶外的廣場4:00~22:00</t>
+  </si>
+  <si>
+    <t>台中文昌廟</t>
+  </si>
+  <si>
+    <t>06:30~20:00</t>
+  </si>
+  <si>
+    <t>台中電子街商圈</t>
+  </si>
+  <si>
+    <t>11:00~22:00</t>
   </si>
 </sst>
 </file>
@@ -101,14 +161,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B70"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="14.41796875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="28.9140625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="70.66796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -137,31 +197,31 @@
         <v>5</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s" s="0">
         <v>7</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s" s="0">
         <v>9</v>
-      </c>
-      <c r="B6" t="s" s="0">
-        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9">
@@ -169,7 +229,7 @@
         <v>1</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10">
@@ -185,31 +245,415 @@
         <v>5</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>12</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B42" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="B44" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B45" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B46" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B47" t="s" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B48" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B49" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="B51" t="s" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B52" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B53" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B54" t="s" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B55" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B56" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="B58" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B59" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B60" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B61" t="s" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B62" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B63" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="B65" t="s" s="0">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B66" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B67" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B68" t="s" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B69" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B70" t="s" s="0">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
